--- a/biology/Histoire de la zoologie et de la botanique/Henrik_Nikolai_Krøyer/Henrik_Nikolai_Krøyer.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Henrik_Nikolai_Krøyer/Henrik_Nikolai_Krøyer.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Henrik_Nikolai_Kr%C3%B8yer</t>
+          <t>Henrik_Nikolai_Krøyer</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Henrik Nikolai Krøyer est un zoologiste danois, né le 22 mars 1799 à Copenhague et mort le 14 novembre 1870.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Henrik_Nikolai_Kr%C3%B8yer</t>
+          <t>Henrik_Nikolai_Krøyer</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Son père est bibliothécaire. Krøyer commence à étudier l’histoire et les classiques, orientation qui aura une grande influence sur sa carrière. Le père de Krøyer est envoyé dans les Caraïbes en 1813 où il meurt quatre ans plus tard.
 Krøyer entame des études de médecine tout en conservant un grand intérêt pour l’histoire et la philologie. Idéaliste, il rejoint en 1821 un groupe de jeunes hommes décidés à se battre aux côtés des Grecs contre les Turcs. Après un voyage périlleux et une détention de plusieurs mois à Marseille, il découvre que la Grèce de son temps ne correspond en rien à son idéal de la Grèce antique. Krøyer et d’autres membres de son groupe décident alors de repartir. Il atteint difficilement Rome et de là l’Allemagne. Il y séjourne un an et fréquente les universités de Heidelberg et de Göttingen. C’est là qu’il commence à s’intéresser à l’histoire naturelle. Il regagne finalement le Danemark à pied en 1823.
@@ -533,7 +547,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Henrik_Nikolai_Kr%C3%B8yer</t>
+          <t>Henrik_Nikolai_Krøyer</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -551,7 +565,9 @@
           <t>Liste partielle des publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1838 : Danmarks Fiske
 De danske Österbanker
